--- a/BackTest/2020-01-13 BackTest PLY.xlsx
+++ b/BackTest/2020-01-13 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7769425.447014434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>8803218.230862781</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,15 +523,13 @@
         <v>8794307.970862782</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1296,11 +1300,9 @@
         <v>7734766.819656054</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1409,11 +1411,9 @@
         <v>7434555.040056053</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1633,9 +1633,11 @@
         <v>7359913.891756053</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.489</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1707,7 +1709,7 @@
         <v>6915773.023756053</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>4.489</v>
@@ -1746,11 +1748,9 @@
         <v>6907653.461056054</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1785,9 +1785,11 @@
         <v>6781418.896056053</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.483</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1859,7 +1861,7 @@
         <v>6781851.896056053</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>4.48</v>
@@ -1898,9 +1900,11 @@
         <v>7661851.896056053</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.488</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2527,11 +2531,9 @@
         <v>6310991.351353376</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2566,11 +2568,9 @@
         <v>6310069.641553376</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2605,11 +2605,9 @@
         <v>6310069.641553376</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2644,11 +2642,9 @@
         <v>6309949.641553376</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2905,11 +2901,9 @@
         <v>6224476.328353376</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2944,11 +2938,9 @@
         <v>5483122.827753376</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3094,11 +3086,9 @@
         <v>4830189.150253376</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3133,11 +3123,9 @@
         <v>4830317.373453376</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3172,11 +3160,9 @@
         <v>4830317.373453376</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3211,11 +3197,9 @@
         <v>4740689.990853376</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3250,11 +3234,9 @@
         <v>4803421.907953376</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3289,11 +3271,9 @@
         <v>4803538.020053376</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3328,11 +3308,9 @@
         <v>4553538.020053376</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.439</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3367,11 +3345,9 @@
         <v>4551821.020053376</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3406,11 +3382,9 @@
         <v>4565769.988953375</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3445,11 +3419,9 @@
         <v>4581977.624053375</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3484,11 +3456,9 @@
         <v>4646743.960653375</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -4078,11 +4048,9 @@
         <v>9275016.285153376</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4117,11 +4085,9 @@
         <v>9231149.840753376</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4156,11 +4122,9 @@
         <v>9422322.073353376</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4.485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4195,11 +4159,9 @@
         <v>9624713.854153376</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4234,11 +4196,9 @@
         <v>9624713.854153376</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4.649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4902,7 +4862,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5346,7 +5306,7 @@
         <v>13085049.3426206</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5420,7 +5380,7 @@
         <v>14075168.0232206</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5494,7 +5454,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5642,7 +5602,7 @@
         <v>14276792.2307206</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5790,7 +5750,7 @@
         <v>14209811.8739206</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5938,7 +5898,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6086,7 +6046,7 @@
         <v>14011658.9276206</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6678,7 +6638,7 @@
         <v>14025735.30778414</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6826,7 +6786,7 @@
         <v>10813354.39508414</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6863,7 +6823,7 @@
         <v>10956689.35808414</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -8639,16 +8599,18 @@
         <v>20590609.64617667</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
       <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
@@ -8674,11 +8636,15 @@
         <v>20590609.64617667</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +8673,15 @@
         <v>20590609.64617667</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8740,11 +8710,15 @@
         <v>20702033.39185419</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +8747,15 @@
         <v>21788969.90595419</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8784,15 @@
         <v>25561779.26925419</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8839,11 +8821,15 @@
         <v>25164936.93953171</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +8858,15 @@
         <v>25105985.11233171</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +8895,15 @@
         <v>25482718.46493172</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8932,15 @@
         <v>25323457.86383171</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8971,11 +8969,15 @@
         <v>25324054.69393171</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +9006,16 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -9037,7 +9041,7 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9070,7 +9074,7 @@
         <v>23267644.72223172</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9103,7 +9107,7 @@
         <v>23427420.06813172</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9136,7 +9140,7 @@
         <v>24067830.13848566</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9169,7 +9173,7 @@
         <v>23805119.47388566</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9202,7 +9206,7 @@
         <v>22697548.5347396</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9235,7 +9239,7 @@
         <v>22249874.21858566</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9268,7 +9272,7 @@
         <v>22288224.54628566</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9301,7 +9305,7 @@
         <v>22303110.21788565</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9334,7 +9338,7 @@
         <v>22196168.16468566</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9367,7 +9371,7 @@
         <v>22400258.86158565</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9400,7 +9404,7 @@
         <v>22150258.86158565</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9433,7 +9437,7 @@
         <v>21710140.63568565</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9466,7 +9470,7 @@
         <v>21753745.62960771</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9499,7 +9503,7 @@
         <v>21692368.40130771</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9532,7 +9536,7 @@
         <v>21782423.97820771</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9565,7 +9569,7 @@
         <v>21782529.97820771</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9598,7 +9602,7 @@
         <v>21781377.48890771</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9631,7 +9635,7 @@
         <v>22058668.86080771</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9664,7 +9668,7 @@
         <v>21851401.2439077</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9697,7 +9701,7 @@
         <v>21907904.2439077</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9730,7 +9734,7 @@
         <v>22999007.51101052</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10390,7 +10394,7 @@
         <v>16502731.16019858</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10423,7 +10427,7 @@
         <v>16502731.16019858</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10456,7 +10460,7 @@
         <v>16213271.70429858</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10489,7 +10493,7 @@
         <v>16605574.59969858</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10522,7 +10526,7 @@
         <v>16346249.20109858</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10555,7 +10559,7 @@
         <v>15836545.75619858</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10588,7 +10592,7 @@
         <v>15836545.75619858</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10621,7 +10625,7 @@
         <v>15335659.35479858</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10654,7 +10658,7 @@
         <v>15569595.65629858</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10687,7 +10691,7 @@
         <v>15766469.48239858</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10720,7 +10724,7 @@
         <v>16322971.94285265</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10753,7 +10757,7 @@
         <v>16261550.46765265</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10786,7 +10790,7 @@
         <v>16400724.50075265</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10819,7 +10823,7 @@
         <v>16249881.58545265</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10852,7 +10856,7 @@
         <v>16253320.41775265</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10885,7 +10889,7 @@
         <v>16033355.27275265</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10918,7 +10922,7 @@
         <v>15531352.7735764</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10951,7 +10955,7 @@
         <v>15449854.7996764</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10984,7 +10988,7 @@
         <v>15248344.3999764</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11017,7 +11021,7 @@
         <v>14866275.8797764</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11050,7 +11054,7 @@
         <v>14484100.3662764</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11083,7 +11087,7 @@
         <v>14484100.3662764</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11116,7 +11120,7 @@
         <v>14517057.4378764</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11149,7 +11153,7 @@
         <v>14504904.1664764</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11182,7 +11186,7 @@
         <v>14498103.0783764</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11215,7 +11219,7 @@
         <v>14372579.0070764</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11248,7 +11252,7 @@
         <v>14195054.0985764</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11281,7 +11285,7 @@
         <v>14477693.8246465</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11314,7 +11318,7 @@
         <v>14477693.8246465</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11347,7 +11351,7 @@
         <v>14585823.0831465</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11380,7 +11384,7 @@
         <v>14424049.0430465</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11413,7 +11417,7 @@
         <v>14424049.0430465</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11446,7 +11450,7 @@
         <v>14433447.82462393</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11479,7 +11483,7 @@
         <v>14432260.88569632</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11512,7 +11516,7 @@
         <v>14365204.58419632</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11545,7 +11549,7 @@
         <v>14584295.94649632</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11578,7 +11582,7 @@
         <v>14331065.32399631</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11611,7 +11615,7 @@
         <v>14623987.16051889</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11644,7 +11648,7 @@
         <v>14641497.39271889</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11677,7 +11681,7 @@
         <v>14398202.26281889</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11710,7 +11714,7 @@
         <v>14510996.85731889</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11743,7 +11747,7 @@
         <v>14463186.85731889</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12139,7 +12143,7 @@
         <v>15701510.18174541</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12205,7 +12209,7 @@
         <v>14887014.70514541</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12238,7 +12242,7 @@
         <v>14827016.80014541</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12271,7 +12275,7 @@
         <v>14827128.80014541</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12304,7 +12308,7 @@
         <v>14826125.95064541</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12337,7 +12341,7 @@
         <v>15028467.90864541</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12370,7 +12374,7 @@
         <v>15028364.90864541</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12403,7 +12407,7 @@
         <v>14756351.90284541</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12436,7 +12440,7 @@
         <v>15084778.54744541</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12766,7 +12770,7 @@
         <v>15557140.08054541</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12799,7 +12803,7 @@
         <v>15557140.08054541</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12832,7 +12836,7 @@
         <v>15631362.63444541</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12865,7 +12869,7 @@
         <v>15625562.63444541</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -18211,7 +18215,7 @@
         <v>8683073.238507457</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -22204,11 +22208,17 @@
         <v>-4679186.309124181</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>4.367</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22241,7 +22251,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22274,7 +22288,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22303,11 +22321,17 @@
         <v>-4526983.742424182</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>4.325</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22340,7 +22364,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22373,7 +22401,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22406,7 +22438,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22439,7 +22475,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22472,7 +22512,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22505,7 +22549,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22534,11 +22582,17 @@
         <v>-4410626.072119975</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>4.426</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22567,11 +22621,17 @@
         <v>-4420179.406419976</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>4.426</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22604,7 +22664,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22637,7 +22701,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22670,7 +22738,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22703,7 +22775,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22736,7 +22812,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22769,7 +22849,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22802,7 +22886,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22835,7 +22923,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22868,7 +22960,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22901,7 +22997,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22934,7 +23034,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22967,7 +23071,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23000,7 +23108,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23033,7 +23145,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23066,7 +23182,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23099,7 +23219,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23132,7 +23256,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23165,7 +23293,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23198,7 +23330,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23231,7 +23367,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23264,7 +23404,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23293,15 +23437,15 @@
         <v>-4432878.424319974</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J666" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="K666" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23333,12 +23477,10 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>4.425</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L667" t="n">
@@ -23372,12 +23514,10 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>4.425</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L668" t="n">
@@ -23412,7 +23552,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23445,7 +23589,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23478,7 +23626,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23511,7 +23663,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23544,7 +23700,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23577,7 +23737,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23610,7 +23774,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23643,7 +23811,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23676,7 +23848,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23709,7 +23885,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23738,15 +23918,15 @@
         <v>-4715343.213919975</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="J679" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="K679" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23775,17 +23955,13 @@
         <v>-5457327.120319975</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J680" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -23816,14 +23992,10 @@
         <v>-6756373.528819975</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J681" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23857,14 +24029,12 @@
         <v>-6733224.315619974</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>4.27</v>
       </c>
-      <c r="J682" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23898,14 +24068,12 @@
         <v>-6764108.536219974</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>4.3</v>
       </c>
-      <c r="J683" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23939,14 +24107,12 @@
         <v>-8073618.033119974</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>4.264</v>
       </c>
-      <c r="J684" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23980,14 +24146,12 @@
         <v>-8829507.039319973</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>4.263</v>
       </c>
-      <c r="J685" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24021,14 +24185,12 @@
         <v>-4476710.966219974</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>4.254</v>
       </c>
-      <c r="J686" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24062,14 +24224,10 @@
         <v>-5185918.984019974</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>4.298</v>
-      </c>
-      <c r="J687" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24103,14 +24261,10 @@
         <v>-5185918.984019974</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>4.264</v>
-      </c>
-      <c r="J688" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24144,14 +24298,12 @@
         <v>-5185606.984019974</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>4.264</v>
       </c>
-      <c r="J689" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24185,14 +24337,12 @@
         <v>-5010326.059019974</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>4.299</v>
       </c>
-      <c r="J690" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,14 +24376,12 @@
         <v>-5010114.059019974</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>4.3</v>
       </c>
-      <c r="J691" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24267,14 +24415,12 @@
         <v>-5027620.428019974</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>4.369</v>
       </c>
-      <c r="J692" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24308,12 +24454,12 @@
         <v>-5006403.042319974</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>4.312</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24347,14 +24493,12 @@
         <v>-5006281.712319974</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>4.336</v>
       </c>
-      <c r="J694" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24388,14 +24532,12 @@
         <v>-5006281.712319974</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>4.345</v>
       </c>
-      <c r="J695" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24429,14 +24571,12 @@
         <v>-5332467.166404974</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>4.345</v>
       </c>
-      <c r="J696" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24470,14 +24610,12 @@
         <v>-5291641.927604973</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>4.302</v>
       </c>
-      <c r="J697" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24511,14 +24649,12 @@
         <v>-5241453.927604973</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>4.349</v>
       </c>
-      <c r="J698" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24552,14 +24688,12 @@
         <v>-5241453.927604973</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I699" t="n">
         <v>4.41</v>
       </c>
-      <c r="J699" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24593,14 +24727,12 @@
         <v>-6029781.249804974</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>4.41</v>
       </c>
-      <c r="J700" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24634,14 +24766,12 @@
         <v>-5773900.164104974</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>4.301</v>
       </c>
-      <c r="J701" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24675,14 +24805,12 @@
         <v>-5773900.164104974</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>4.378</v>
       </c>
-      <c r="J702" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24716,14 +24844,12 @@
         <v>-5814448.912404974</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>4.378</v>
       </c>
-      <c r="J703" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24757,14 +24883,12 @@
         <v>-5840231.570704974</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>4.284</v>
       </c>
-      <c r="J704" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24798,14 +24922,12 @@
         <v>-5694172.222004974</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>4.282</v>
       </c>
-      <c r="J705" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24839,14 +24961,12 @@
         <v>-5733246.982304974</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>4.332</v>
       </c>
-      <c r="J706" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24880,14 +25000,12 @@
         <v>-5716957.459284717</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>4.309</v>
       </c>
-      <c r="J707" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24921,12 +25039,12 @@
         <v>-5740688.470784717</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>4.333</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24960,14 +25078,12 @@
         <v>-5740688.470784717</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>4.308</v>
       </c>
-      <c r="J709" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25001,14 +25117,12 @@
         <v>-5740688.470784717</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>4.308</v>
       </c>
-      <c r="J710" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25042,14 +25156,12 @@
         <v>-5790688.470784717</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>4.308</v>
       </c>
-      <c r="J711" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25083,14 +25195,12 @@
         <v>-5790688.470784717</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>4.28</v>
       </c>
-      <c r="J712" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25124,14 +25234,12 @@
         <v>-5744563.667284717</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>4.28</v>
       </c>
-      <c r="J713" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25165,14 +25273,12 @@
         <v>-5897154.757984716</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>4.298</v>
       </c>
-      <c r="J714" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25206,14 +25312,12 @@
         <v>-6419708.359184717</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>4.28</v>
       </c>
-      <c r="J715" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25247,14 +25351,12 @@
         <v>-6231127.887584717</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>4.25</v>
       </c>
-      <c r="J716" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25288,14 +25390,12 @@
         <v>-6092328.765089638</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>4.298</v>
       </c>
-      <c r="J717" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25329,12 +25429,12 @@
         <v>-6092328.765089638</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>4.345</v>
+      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25371,9 +25471,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25407,14 +25505,10 @@
         <v>-6375652.439789638</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
-      </c>
-      <c r="I720" t="n">
-        <v>4.335</v>
-      </c>
-      <c r="J720" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25448,12 +25542,12 @@
         <v>-6375531.327889638</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25490,9 +25584,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25529,9 +25621,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25568,9 +25658,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25604,12 +25692,12 @@
         <v>-6397902.189689638</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>4.312</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25646,9 +25734,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25685,9 +25771,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25724,9 +25808,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25763,9 +25845,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25799,14 +25879,10 @@
         <v>-5901261.312489638</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>4.325</v>
-      </c>
-      <c r="J730" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25840,14 +25916,10 @@
         <v>-5329255.255389638</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J731" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25881,14 +25953,10 @@
         <v>-5340220.255189639</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J732" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25922,14 +25990,10 @@
         <v>-4879300.484289639</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>4.402</v>
-      </c>
-      <c r="J733" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25963,14 +26027,10 @@
         <v>-4879300.484289639</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="J734" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26004,14 +26064,10 @@
         <v>-5156928.920289638</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="J735" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26045,14 +26101,10 @@
         <v>-5156928.920289638</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J736" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26086,14 +26138,10 @@
         <v>-5513928.728289639</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J737" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26127,14 +26175,10 @@
         <v>-5513928.728289639</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>4.389</v>
-      </c>
-      <c r="J738" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26168,14 +26212,10 @@
         <v>-5513928.728289639</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>4.389</v>
-      </c>
-      <c r="J739" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26209,14 +26249,10 @@
         <v>-5447589.233389638</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
-      </c>
-      <c r="I740" t="n">
-        <v>4.389</v>
-      </c>
-      <c r="J740" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26250,14 +26286,12 @@
         <v>-5447589.233389638</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>4.434</v>
       </c>
-      <c r="J741" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26291,14 +26325,10 @@
         <v>-5448496.726989638</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
-      </c>
-      <c r="I742" t="n">
-        <v>4.434</v>
-      </c>
-      <c r="J742" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26332,14 +26362,10 @@
         <v>-5451105.021689638</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="n">
-        <v>4.399</v>
-      </c>
-      <c r="J743" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26373,14 +26399,10 @@
         <v>-5451317.242489639</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>4.389</v>
-      </c>
-      <c r="J744" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26414,14 +26436,12 @@
         <v>-5534399.608489639</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>4.369</v>
       </c>
-      <c r="J745" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26455,14 +26475,12 @@
         <v>-5380911.23378964</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>4.321</v>
       </c>
-      <c r="J746" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26496,14 +26514,12 @@
         <v>-5392864.15568964</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>4.347</v>
       </c>
-      <c r="J747" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26537,14 +26553,12 @@
         <v>-5367423.10458964</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>4.346</v>
       </c>
-      <c r="J748" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26578,12 +26592,12 @@
         <v>-5365491.92278964</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26617,14 +26631,10 @@
         <v>-5495396.58818964</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>4.433</v>
-      </c>
-      <c r="J750" t="n">
-        <v>4.375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26661,9 +26671,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26700,9 +26708,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26739,9 +26745,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26775,12 +26779,12 @@
         <v>-4561718.036528066</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26817,9 +26821,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26856,9 +26858,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26892,12 +26892,12 @@
         <v>-5139574.528728066</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>4.441</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26931,12 +26931,12 @@
         <v>-5153550.113328066</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4.441</v>
+      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26970,12 +26970,12 @@
         <v>-5157882.412328065</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27009,14 +27009,12 @@
         <v>-5031395.750453794</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>4.409</v>
       </c>
-      <c r="J760" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27050,14 +27048,12 @@
         <v>-4981428.065353794</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>4.462</v>
       </c>
-      <c r="J761" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27091,14 +27087,12 @@
         <v>-5171042.187353794</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>4.475</v>
       </c>
-      <c r="J762" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27132,14 +27126,12 @@
         <v>-5171042.187353794</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>4.37</v>
       </c>
-      <c r="J763" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27173,14 +27165,12 @@
         <v>-5166042.187353794</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>4.37</v>
       </c>
-      <c r="J764" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27214,14 +27204,12 @@
         <v>-5165924.187353794</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>4.419</v>
       </c>
-      <c r="J765" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27255,14 +27243,12 @@
         <v>-5197106.566653795</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>4.458</v>
       </c>
-      <c r="J766" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27296,14 +27282,12 @@
         <v>-5167710.368453794</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>4.385</v>
       </c>
-      <c r="J767" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27337,14 +27321,12 @@
         <v>-5698528.679253794</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>4.445</v>
       </c>
-      <c r="J768" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27378,14 +27360,12 @@
         <v>-5949467.494053794</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>4.39</v>
       </c>
-      <c r="J769" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27419,14 +27399,12 @@
         <v>-6090786.762153794</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>4.385</v>
       </c>
-      <c r="J770" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27460,14 +27438,12 @@
         <v>-6089998.861153794</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>4.381</v>
       </c>
-      <c r="J771" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27501,14 +27477,12 @@
         <v>-6539338.803253794</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>4.387</v>
       </c>
-      <c r="J772" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27542,14 +27516,12 @@
         <v>-6539224.803253794</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>4.381</v>
       </c>
-      <c r="J773" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27583,14 +27555,12 @@
         <v>-7517617.740353794</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>4.414</v>
       </c>
-      <c r="J774" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27624,14 +27594,12 @@
         <v>-7517617.740353794</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>4.351</v>
       </c>
-      <c r="J775" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27665,14 +27633,12 @@
         <v>-7517617.740353794</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>4.351</v>
       </c>
-      <c r="J776" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27706,14 +27672,12 @@
         <v>-7517617.740353794</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>4.351</v>
       </c>
-      <c r="J777" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27747,14 +27711,12 @@
         <v>-7517438.747753793</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>4.351</v>
       </c>
-      <c r="J778" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27788,14 +27750,12 @@
         <v>-7517322.747753793</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>4.355</v>
       </c>
-      <c r="J779" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27829,14 +27789,12 @@
         <v>-7516976.69315479</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>4.402</v>
       </c>
-      <c r="J780" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27870,12 +27828,12 @@
         <v>-7526976.69315479</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>4.414</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27909,12 +27867,12 @@
         <v>-7527103.02755479</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>4.412</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27948,12 +27906,12 @@
         <v>-7729894.479154791</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27987,12 +27945,12 @@
         <v>-7730124.479154791</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>4.388</v>
+      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28026,12 +27984,12 @@
         <v>-7725124.479154791</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>4.355</v>
+      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28065,12 +28023,12 @@
         <v>-8725124.479154792</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>4.392</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28104,12 +28062,12 @@
         <v>-10372265.82315479</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>4.322</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28143,14 +28101,12 @@
         <v>-10496468.18105479</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>4.304</v>
       </c>
-      <c r="J788" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28184,14 +28140,12 @@
         <v>-10482653.61795479</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>4.294</v>
       </c>
-      <c r="J789" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28225,14 +28179,12 @@
         <v>-10472653.61795479</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>4.297</v>
       </c>
-      <c r="J790" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28266,14 +28218,12 @@
         <v>-10382140.96115479</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>4.339</v>
       </c>
-      <c r="J791" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28307,14 +28257,12 @@
         <v>-10370140.96115479</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>4.376</v>
       </c>
-      <c r="J792" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28348,14 +28296,12 @@
         <v>-10370259.96115479</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>4.385</v>
       </c>
-      <c r="J793" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28389,14 +28335,12 @@
         <v>-9489834.762503024</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
         <v>4.332</v>
       </c>
-      <c r="J794" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28430,14 +28374,12 @@
         <v>-9489834.762503024</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I795" t="n">
         <v>4.34</v>
       </c>
-      <c r="J795" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28471,12 +28413,12 @@
         <v>-9492446.157603024</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28510,14 +28452,12 @@
         <v>-9019467.070103023</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I797" t="n">
         <v>4.33</v>
       </c>
-      <c r="J797" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28551,14 +28491,12 @@
         <v>-9019265.201403024</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>4.34</v>
       </c>
-      <c r="J798" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28592,14 +28530,12 @@
         <v>-9019265.201403024</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>4.341</v>
       </c>
-      <c r="J799" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28633,14 +28569,12 @@
         <v>-9019150.201403024</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>4.341</v>
       </c>
-      <c r="J800" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28674,14 +28608,12 @@
         <v>-8991722.333303023</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>4.379</v>
       </c>
-      <c r="J801" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28715,14 +28647,12 @@
         <v>-9288124.153803023</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>4.385</v>
       </c>
-      <c r="J802" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28756,12 +28686,12 @@
         <v>-9288239.153803023</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
         <v>4.375</v>
       </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28795,12 +28725,12 @@
         <v>-9288009.153803023</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>4.351</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28834,12 +28764,12 @@
         <v>-9288125.153803023</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>4.385</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28873,12 +28803,12 @@
         <v>-9288518.153803023</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28912,14 +28842,12 @@
         <v>-9288403.153803023</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>4.351</v>
       </c>
-      <c r="J807" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28953,14 +28881,12 @@
         <v>-9231082.157847749</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>4.385</v>
       </c>
-      <c r="J808" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28994,14 +28920,12 @@
         <v>-9336029.139147749</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>4.389</v>
       </c>
-      <c r="J809" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29035,12 +28959,12 @@
         <v>-9236029.139147749</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>4.375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>4.359</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29074,14 +28998,12 @@
         <v>-9477774.139147749</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>4.36</v>
       </c>
-      <c r="J811" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29115,14 +29037,12 @@
         <v>-9577774.139147749</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>4.359</v>
       </c>
-      <c r="J812" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29156,14 +29076,12 @@
         <v>-9777356.301347749</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>4.353</v>
       </c>
-      <c r="J813" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29197,14 +29115,12 @@
         <v>-9777594.301347749</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>4.351</v>
       </c>
-      <c r="J814" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29238,14 +29154,12 @@
         <v>-9777594.301347749</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>4.34</v>
       </c>
-      <c r="J815" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29279,14 +29193,12 @@
         <v>-9777831.301347749</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>4.34</v>
       </c>
-      <c r="J816" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29320,14 +29232,12 @@
         <v>-9777831.301347749</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>4.33</v>
       </c>
-      <c r="J817" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29361,14 +29271,12 @@
         <v>-9751106.14214775</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>4.33</v>
       </c>
-      <c r="J818" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29402,14 +29310,12 @@
         <v>-9734463.03214775</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I819" t="n">
         <v>4.375</v>
       </c>
-      <c r="J819" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29443,14 +29349,12 @@
         <v>-9734700.03214775</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
         <v>4.385</v>
       </c>
-      <c r="J820" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29484,14 +29388,12 @@
         <v>-9930698.847547751</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>4.34</v>
       </c>
-      <c r="J821" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29525,14 +29427,12 @@
         <v>-9920208.847547751</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I822" t="n">
         <v>4.304</v>
       </c>
-      <c r="J822" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29566,14 +29466,12 @@
         <v>-9840457.454853687</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="n">
         <v>4.374</v>
       </c>
-      <c r="J823" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29607,14 +29505,12 @@
         <v>-9860457.454853687</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>4.38</v>
       </c>
-      <c r="J824" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29648,14 +29544,12 @@
         <v>-9871849.571453687</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>4.37</v>
       </c>
-      <c r="J825" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29689,14 +29583,12 @@
         <v>-9720849.571453687</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>4.332</v>
       </c>
-      <c r="J826" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29730,14 +29622,12 @@
         <v>-9531937.152247749</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>4.38</v>
       </c>
-      <c r="J827" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29771,14 +29661,12 @@
         <v>-9531818.152247749</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>4.4</v>
       </c>
-      <c r="J828" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29812,14 +29700,12 @@
         <v>-9555373.575647749</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>4.41</v>
       </c>
-      <c r="J829" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29853,14 +29739,12 @@
         <v>-9595986.814447749</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>4.4</v>
       </c>
-      <c r="J830" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29894,14 +29778,12 @@
         <v>-9595986.814447749</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>4.385</v>
       </c>
-      <c r="J831" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29935,14 +29817,12 @@
         <v>-9596222.814447749</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
         <v>4.385</v>
       </c>
-      <c r="J832" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29976,14 +29856,12 @@
         <v>-9596222.814447749</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833" t="n">
         <v>4.356</v>
       </c>
-      <c r="J833" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30017,14 +29895,12 @@
         <v>-9356952.666547749</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="n">
         <v>4.356</v>
       </c>
-      <c r="J834" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30058,14 +29934,12 @@
         <v>-9254411.90094775</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>4.39</v>
       </c>
-      <c r="J835" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30099,14 +29973,12 @@
         <v>-9271086.218247749</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>4.406</v>
       </c>
-      <c r="J836" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30140,14 +30012,12 @@
         <v>-9271086.218247749</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>4.356</v>
       </c>
-      <c r="J837" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30181,14 +30051,12 @@
         <v>-9331018.041647749</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>4.356</v>
       </c>
-      <c r="J838" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30222,14 +30090,12 @@
         <v>-9335653.03584775</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>4.332</v>
       </c>
-      <c r="J839" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30263,14 +30129,12 @@
         <v>-9276587.516347749</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>4.32</v>
       </c>
-      <c r="J840" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30304,14 +30168,12 @@
         <v>-10484849.31734775</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>4.33</v>
       </c>
-      <c r="J841" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30345,14 +30207,12 @@
         <v>-10398175.04284775</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>4.28</v>
       </c>
-      <c r="J842" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30386,14 +30246,12 @@
         <v>-10444669.49634775</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>4.385</v>
       </c>
-      <c r="J843" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30427,14 +30285,12 @@
         <v>-10444669.49634775</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>4.33</v>
       </c>
-      <c r="J844" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30468,14 +30324,12 @@
         <v>-10444906.49634775</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>4.33</v>
       </c>
-      <c r="J845" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30509,14 +30363,12 @@
         <v>-10444906.49634775</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>4.32</v>
       </c>
-      <c r="J846" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30550,14 +30402,12 @@
         <v>-10444906.49634775</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>4.32</v>
       </c>
-      <c r="J847" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30591,14 +30441,12 @@
         <v>-10443528.22714775</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>4.32</v>
       </c>
-      <c r="J848" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30632,14 +30480,12 @@
         <v>-10881148.50344775</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>4.331</v>
       </c>
-      <c r="J849" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30673,14 +30519,12 @@
         <v>-10881148.50344775</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>4.32</v>
       </c>
-      <c r="J850" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30714,14 +30558,12 @@
         <v>-10321143.10654775</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>4.32</v>
       </c>
-      <c r="J851" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30755,14 +30597,12 @@
         <v>-10412398.48014775</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>4.321</v>
       </c>
-      <c r="J852" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30796,14 +30636,12 @@
         <v>-10504720.13434775</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>4.319</v>
       </c>
-      <c r="J853" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30837,14 +30675,12 @@
         <v>-10051703.31674775</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>4.318</v>
       </c>
-      <c r="J854" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30878,14 +30714,12 @@
         <v>-10051703.31674775</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>4.321</v>
       </c>
-      <c r="J855" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30919,14 +30753,12 @@
         <v>-10051211.31674775</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>4.321</v>
       </c>
-      <c r="J856" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30960,14 +30792,12 @@
         <v>-10061233.78784775</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>4.351</v>
       </c>
-      <c r="J857" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31001,14 +30831,12 @@
         <v>-11324278.72024775</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>4.321</v>
       </c>
-      <c r="J858" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31042,14 +30870,12 @@
         <v>-11208615.45404775</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>4.274</v>
       </c>
-      <c r="J859" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31083,14 +30909,12 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>4.275</v>
       </c>
-      <c r="J860" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31124,14 +30948,12 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>4.34</v>
       </c>
-      <c r="J861" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31165,14 +30987,12 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I862" t="n">
         <v>4.34</v>
       </c>
-      <c r="J862" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31206,14 +31026,12 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I863" t="n">
         <v>4.34</v>
       </c>
-      <c r="J863" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31247,14 +31065,12 @@
         <v>-11204423.74924775</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>4.34</v>
       </c>
-      <c r="J864" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31288,14 +31104,12 @@
         <v>-11206666.85524775</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>4.34</v>
       </c>
-      <c r="J865" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31329,14 +31143,12 @@
         <v>-11017187.64714775</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>4.308</v>
       </c>
-      <c r="J866" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31370,14 +31182,12 @@
         <v>-11017187.64714775</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>4.351</v>
       </c>
-      <c r="J867" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31411,14 +31221,12 @@
         <v>-11017187.64714775</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I868" t="n">
         <v>4.351</v>
       </c>
-      <c r="J868" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31452,14 +31260,12 @@
         <v>-10933819.15654775</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
         <v>4.351</v>
       </c>
-      <c r="J869" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31493,14 +31299,12 @@
         <v>-10933819.15654775</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>4.36</v>
       </c>
-      <c r="J870" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31534,14 +31338,12 @@
         <v>-11057667.26284775</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>4.36</v>
       </c>
-      <c r="J871" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31575,14 +31377,12 @@
         <v>-10979889.84944775</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>4.309</v>
       </c>
-      <c r="J872" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31616,14 +31416,12 @@
         <v>-10979774.84944775</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>4.33</v>
       </c>
-      <c r="J873" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31657,14 +31455,12 @@
         <v>-10979774.84944775</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>4.37</v>
       </c>
-      <c r="J874" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31698,14 +31494,12 @@
         <v>-10979774.84944775</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>4.37</v>
       </c>
-      <c r="J875" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31739,14 +31533,12 @@
         <v>-10978659.84944775</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>4.37</v>
       </c>
-      <c r="J876" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31780,14 +31572,12 @@
         <v>-10978659.84944775</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="n">
         <v>4.38</v>
       </c>
-      <c r="J877" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31821,14 +31611,12 @@
         <v>-11004138.22844775</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>4.38</v>
       </c>
-      <c r="J878" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31862,14 +31650,12 @@
         <v>-10986057.09834775</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>4.351</v>
       </c>
-      <c r="J879" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31903,14 +31689,12 @@
         <v>-11171856.60544775</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>4.37</v>
       </c>
-      <c r="J880" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31944,14 +31728,12 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>4.369</v>
       </c>
-      <c r="J881" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31985,14 +31767,12 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>4.379</v>
       </c>
-      <c r="J882" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32026,14 +31806,12 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>4.379</v>
       </c>
-      <c r="J883" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32067,14 +31845,12 @@
         <v>-11130351.22434775</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>4.379</v>
       </c>
-      <c r="J884" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32108,14 +31884,12 @@
         <v>-11129877.03254775</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>4.38</v>
       </c>
-      <c r="J885" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32149,14 +31923,12 @@
         <v>-11130307.35724775</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>4.394</v>
       </c>
-      <c r="J886" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32190,14 +31962,12 @@
         <v>-11362377.46114775</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I887" t="n">
         <v>4.38</v>
       </c>
-      <c r="J887" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32231,14 +32001,12 @@
         <v>-11362377.46114775</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>4.341</v>
       </c>
-      <c r="J888" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32272,14 +32040,12 @@
         <v>-12664806.52624775</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>4.341</v>
       </c>
-      <c r="J889" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32313,14 +32079,12 @@
         <v>-12664806.52624775</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>4.3</v>
       </c>
-      <c r="J890" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32354,14 +32118,12 @@
         <v>-12944806.52624775</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>4.3</v>
       </c>
-      <c r="J891" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32395,14 +32157,12 @@
         <v>-12944473.52624775</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>4.29</v>
       </c>
-      <c r="J892" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32436,14 +32196,12 @@
         <v>-12945371.41724775</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>4.347</v>
       </c>
-      <c r="J893" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32477,14 +32235,12 @@
         <v>-12945132.41724775</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>4.307</v>
       </c>
-      <c r="J894" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32518,14 +32274,12 @@
         <v>-12944886.41724775</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>4.317</v>
       </c>
-      <c r="J895" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32559,14 +32313,12 @@
         <v>-13070564.19614775</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>4.344</v>
       </c>
-      <c r="J896" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32600,14 +32352,12 @@
         <v>-13097194.53174775</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>4.301</v>
       </c>
-      <c r="J897" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32641,14 +32391,12 @@
         <v>-11976667.92664775</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>4.29</v>
       </c>
-      <c r="J898" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32682,14 +32430,12 @@
         <v>-12020256.22664775</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>4.366</v>
       </c>
-      <c r="J899" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32723,14 +32469,12 @@
         <v>-11977286.86074775</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>4.333</v>
       </c>
-      <c r="J900" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32764,14 +32508,12 @@
         <v>-11982540.98594775</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>4.345</v>
       </c>
-      <c r="J901" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32805,14 +32547,12 @@
         <v>-11959277.64714775</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>4.286</v>
       </c>
-      <c r="J902" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32846,14 +32586,12 @@
         <v>-11993361.66744775</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>4.355</v>
       </c>
-      <c r="J903" t="n">
-        <v>4.375</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32865,6 +32603,6 @@
       <c r="M903" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest PLY.xlsx
+++ b/BackTest/2020-01-13 BackTest PLY.xlsx
@@ -1177,7 +1177,7 @@
         <v>7728396.819656054</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>7734766.819656054</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>7402687.469056053</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>7417076.611256053</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>7434555.040056053</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7527185.315956052</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>6915773.023756053</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>11921813.2429206</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>12287536.6925206</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>13348080.9138206</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13928921.7566206</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13728921.7566206</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>13716084.8997206</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>13718173.0184206</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>13719278.0184206</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>13094106.6261206</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>13018091.6350206</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>12873382.3203206</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>12937270.8639206</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>12887270.8639206</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>13026721.5495206</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>13265672.9238206</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>13085049.3426206</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>13917168.0232206</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>14075168.0232206</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>14105168.0232206</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>14367309.4837206</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>14246746.7017206</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>14299322.4583206</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>13988354.5192206</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>20590609.64617667</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>20702033.39185419</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>21788969.90595419</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>25561779.26925419</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>25164936.93953171</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>25105985.11233171</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>25482718.46493172</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>25323457.86383171</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>25324054.69393171</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>22962677.55333171</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>23267644.72223172</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24067830.13848566</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>23805119.47388566</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>22697548.5347396</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>22249874.21858566</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>22288224.54628566</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>22303110.21788565</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>22196168.16468566</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>22400258.86158565</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>22150258.86158565</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>21710140.63568565</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>21753745.62960771</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>21692368.40130771</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>21782423.97820771</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>21782529.97820771</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>21781377.48890771</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>22058668.86080771</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>21851401.2439077</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>22786556.29569698</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>20995747.94529698</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>21174121.74769698</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>21184220.74769698</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>21184121.74769698</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>21018973.17049698</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>21266773.31609698</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>21212073.08209698</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>4555846.202691987</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>4830058.347191988</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>5885592.62180746</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>7336445.826170347</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>7024255.321970346</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>6525630.132870346</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>6145341.677270346</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>7037895.234970346</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>6993895.234970346</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>6998654.847270346</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>6973117.117970346</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>6972725.079170346</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -27907,11 +27907,17 @@
         <v>-9356952.666547749</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>4.356</v>
+      </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +27950,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +27987,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28024,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28057,17 @@
         <v>-9331018.041647749</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>4.356</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28096,17 @@
         <v>-9335653.03584775</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>4.332</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28110,10 +28140,12 @@
       <c r="I840" t="n">
         <v>4.32</v>
       </c>
-      <c r="J840" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28147,12 +28179,10 @@
       <c r="I841" t="n">
         <v>4.33</v>
       </c>
-      <c r="J841" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L841" t="n">
@@ -28188,9 +28218,7 @@
       <c r="I842" t="n">
         <v>4.28</v>
       </c>
-      <c r="J842" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28229,9 +28257,7 @@
       <c r="I843" t="n">
         <v>4.385</v>
       </c>
-      <c r="J843" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28270,9 +28296,7 @@
       <c r="I844" t="n">
         <v>4.33</v>
       </c>
-      <c r="J844" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28311,9 +28335,7 @@
       <c r="I845" t="n">
         <v>4.33</v>
       </c>
-      <c r="J845" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28352,9 +28374,7 @@
       <c r="I846" t="n">
         <v>4.32</v>
       </c>
-      <c r="J846" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28393,9 +28413,7 @@
       <c r="I847" t="n">
         <v>4.32</v>
       </c>
-      <c r="J847" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28434,9 +28452,7 @@
       <c r="I848" t="n">
         <v>4.32</v>
       </c>
-      <c r="J848" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28475,9 +28491,7 @@
       <c r="I849" t="n">
         <v>4.331</v>
       </c>
-      <c r="J849" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28516,9 +28530,7 @@
       <c r="I850" t="n">
         <v>4.32</v>
       </c>
-      <c r="J850" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28557,9 +28569,7 @@
       <c r="I851" t="n">
         <v>4.32</v>
       </c>
-      <c r="J851" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28598,9 +28608,7 @@
       <c r="I852" t="n">
         <v>4.321</v>
       </c>
-      <c r="J852" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28639,9 +28647,7 @@
       <c r="I853" t="n">
         <v>4.319</v>
       </c>
-      <c r="J853" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28680,9 +28686,7 @@
       <c r="I854" t="n">
         <v>4.318</v>
       </c>
-      <c r="J854" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28721,9 +28725,7 @@
       <c r="I855" t="n">
         <v>4.321</v>
       </c>
-      <c r="J855" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28762,9 +28764,7 @@
       <c r="I856" t="n">
         <v>4.321</v>
       </c>
-      <c r="J856" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28803,9 +28803,7 @@
       <c r="I857" t="n">
         <v>4.351</v>
       </c>
-      <c r="J857" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28844,9 +28842,7 @@
       <c r="I858" t="n">
         <v>4.321</v>
       </c>
-      <c r="J858" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28885,9 +28881,7 @@
       <c r="I859" t="n">
         <v>4.274</v>
       </c>
-      <c r="J859" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28926,9 +28920,7 @@
       <c r="I860" t="n">
         <v>4.275</v>
       </c>
-      <c r="J860" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28967,9 +28959,7 @@
       <c r="I861" t="n">
         <v>4.34</v>
       </c>
-      <c r="J861" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29008,9 +28998,7 @@
       <c r="I862" t="n">
         <v>4.34</v>
       </c>
-      <c r="J862" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29049,9 +29037,7 @@
       <c r="I863" t="n">
         <v>4.34</v>
       </c>
-      <c r="J863" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29090,9 +29076,7 @@
       <c r="I864" t="n">
         <v>4.34</v>
       </c>
-      <c r="J864" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29126,12 +29110,12 @@
         <v>-11206666.85524775</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29170,9 +29154,7 @@
       <c r="I866" t="n">
         <v>4.308</v>
       </c>
-      <c r="J866" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29211,9 +29193,7 @@
       <c r="I867" t="n">
         <v>4.351</v>
       </c>
-      <c r="J867" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29252,9 +29232,7 @@
       <c r="I868" t="n">
         <v>4.351</v>
       </c>
-      <c r="J868" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29293,9 +29271,7 @@
       <c r="I869" t="n">
         <v>4.351</v>
       </c>
-      <c r="J869" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29334,9 +29310,7 @@
       <c r="I870" t="n">
         <v>4.36</v>
       </c>
-      <c r="J870" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29375,9 +29349,7 @@
       <c r="I871" t="n">
         <v>4.36</v>
       </c>
-      <c r="J871" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29416,9 +29388,7 @@
       <c r="I872" t="n">
         <v>4.309</v>
       </c>
-      <c r="J872" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29457,9 +29427,7 @@
       <c r="I873" t="n">
         <v>4.33</v>
       </c>
-      <c r="J873" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29498,9 +29466,7 @@
       <c r="I874" t="n">
         <v>4.37</v>
       </c>
-      <c r="J874" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29539,9 +29505,7 @@
       <c r="I875" t="n">
         <v>4.37</v>
       </c>
-      <c r="J875" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29580,9 +29544,7 @@
       <c r="I876" t="n">
         <v>4.37</v>
       </c>
-      <c r="J876" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29621,9 +29583,7 @@
       <c r="I877" t="n">
         <v>4.38</v>
       </c>
-      <c r="J877" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29662,9 +29622,7 @@
       <c r="I878" t="n">
         <v>4.38</v>
       </c>
-      <c r="J878" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29703,9 +29661,7 @@
       <c r="I879" t="n">
         <v>4.351</v>
       </c>
-      <c r="J879" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29744,9 +29700,7 @@
       <c r="I880" t="n">
         <v>4.37</v>
       </c>
-      <c r="J880" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29785,9 +29739,7 @@
       <c r="I881" t="n">
         <v>4.369</v>
       </c>
-      <c r="J881" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29826,9 +29778,7 @@
       <c r="I882" t="n">
         <v>4.379</v>
       </c>
-      <c r="J882" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29862,12 +29812,12 @@
         <v>-11130366.60544775</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4.379</v>
+      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29906,9 +29856,7 @@
       <c r="I884" t="n">
         <v>4.379</v>
       </c>
-      <c r="J884" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29947,9 +29895,7 @@
       <c r="I885" t="n">
         <v>4.38</v>
       </c>
-      <c r="J885" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29983,12 +29929,12 @@
         <v>-11130307.35724775</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30027,9 +29973,7 @@
       <c r="I887" t="n">
         <v>4.38</v>
       </c>
-      <c r="J887" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30063,12 +30007,12 @@
         <v>-11362377.46114775</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>4.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>4.341</v>
+      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30107,9 +30051,7 @@
       <c r="I889" t="n">
         <v>4.341</v>
       </c>
-      <c r="J889" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30148,9 +30090,7 @@
       <c r="I890" t="n">
         <v>4.3</v>
       </c>
-      <c r="J890" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30189,9 +30129,7 @@
       <c r="I891" t="n">
         <v>4.3</v>
       </c>
-      <c r="J891" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30230,9 +30168,7 @@
       <c r="I892" t="n">
         <v>4.29</v>
       </c>
-      <c r="J892" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30271,9 +30207,7 @@
       <c r="I893" t="n">
         <v>4.347</v>
       </c>
-      <c r="J893" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30312,9 +30246,7 @@
       <c r="I894" t="n">
         <v>4.307</v>
       </c>
-      <c r="J894" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30353,9 +30285,7 @@
       <c r="I895" t="n">
         <v>4.317</v>
       </c>
-      <c r="J895" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30394,9 +30324,7 @@
       <c r="I896" t="n">
         <v>4.344</v>
       </c>
-      <c r="J896" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30435,9 +30363,7 @@
       <c r="I897" t="n">
         <v>4.301</v>
       </c>
-      <c r="J897" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30476,9 +30402,7 @@
       <c r="I898" t="n">
         <v>4.29</v>
       </c>
-      <c r="J898" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30517,9 +30441,7 @@
       <c r="I899" t="n">
         <v>4.366</v>
       </c>
-      <c r="J899" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30558,9 +30480,7 @@
       <c r="I900" t="n">
         <v>4.333</v>
       </c>
-      <c r="J900" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30599,9 +30519,7 @@
       <c r="I901" t="n">
         <v>4.345</v>
       </c>
-      <c r="J901" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30640,9 +30558,7 @@
       <c r="I902" t="n">
         <v>4.286</v>
       </c>
-      <c r="J902" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30681,9 +30597,7 @@
       <c r="I903" t="n">
         <v>4.355</v>
       </c>
-      <c r="J903" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
